--- a/www.eia.gov/forecasts/steo/xls/Fig36.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig36.xlsx
@@ -27,9 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Estimated Unplanned Crude Oil Production Outages (million bbls/day)</t>
@@ -86,13 +86,16 @@
     <t>Ghana</t>
   </si>
   <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
     <t>Peru</t>
   </si>
   <si>
     <t>Azerbaijan</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
 </sst>
 </file>
@@ -662,7 +665,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>#N/A</c:v>
@@ -989,7 +992,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>#N/A</c:v>
@@ -1316,7 +1319,7 @@
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>#N/A</c:v>
@@ -1640,10 +1643,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.10387096774</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>#N/A</c:v>
@@ -1970,7 +1973,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>#N/A</c:v>
@@ -2297,7 +2300,7 @@
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>#N/A</c:v>
@@ -2624,7 +2627,7 @@
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>#N/A</c:v>
@@ -2951,7 +2954,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>#N/A</c:v>
@@ -3278,7 +3281,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>#N/A</c:v>
@@ -3605,7 +3608,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>#N/A</c:v>
@@ -3824,10 +3827,10 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3932,7 +3935,7 @@
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.5000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>#N/A</c:v>
@@ -3981,11 +3984,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="679226640"/>
-        <c:axId val="679227200"/>
+        <c:axId val="422807600"/>
+        <c:axId val="581567936"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="679226640"/>
+        <c:axId val="422807600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3995,7 +3998,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="679227200"/>
+        <c:crossAx val="581567936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4006,7 +4009,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="679227200"/>
+        <c:axId val="581567936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4033,7 +4036,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="679226640"/>
+        <c:crossAx val="422807600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4168,7 +4171,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900"/>
         </a:p>
@@ -4333,7 +4336,7 @@
             <v>0</v>
           </cell>
           <cell r="L27">
-            <v>0</v>
+            <v>0.02</v>
           </cell>
         </row>
         <row r="28">
@@ -4371,7 +4374,7 @@
             <v>0</v>
           </cell>
           <cell r="L28">
-            <v>0</v>
+            <v>0.02</v>
           </cell>
         </row>
         <row r="29">
@@ -5642,7 +5645,7 @@
             <v>0.13</v>
           </cell>
           <cell r="E62">
-            <v>0</v>
+            <v>0.01</v>
           </cell>
           <cell r="F62">
             <v>0</v>
@@ -5670,38 +5673,38 @@
           <cell r="A63">
             <v>42736</v>
           </cell>
-          <cell r="B63" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C63" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="D63" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="E63" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="F63" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G63" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H63" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="I63" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="J63" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K63" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L63" t="e">
-            <v>#N/A</v>
+          <cell r="B63">
+            <v>0</v>
+          </cell>
+          <cell r="C63">
+            <v>0</v>
+          </cell>
+          <cell r="D63">
+            <v>0.13</v>
+          </cell>
+          <cell r="E63">
+            <v>0.10387096774</v>
+          </cell>
+          <cell r="F63">
+            <v>0</v>
+          </cell>
+          <cell r="G63">
+            <v>0.05</v>
+          </cell>
+          <cell r="H63">
+            <v>0.12</v>
+          </cell>
+          <cell r="I63">
+            <v>0</v>
+          </cell>
+          <cell r="J63">
+            <v>0</v>
+          </cell>
+          <cell r="K63">
+            <v>0</v>
+          </cell>
+          <cell r="L63">
+            <v>5.5000000000000007E-2</v>
           </cell>
         </row>
         <row r="64">
@@ -6460,7 +6463,7 @@
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="7"/>
+      <c r="U25" s="6"/>
       <c r="V25" s="7"/>
     </row>
     <row r="26" spans="1:22" ht="25" x14ac:dyDescent="0.25">
@@ -6513,11 +6516,14 @@
       <c r="R26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S26" s="9" t="s">
+      <c r="S26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T26" s="11" t="s">
+      <c r="T26" s="9" t="s">
         <v>20</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -6555,10 +6561,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="13">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M27" s="13">
-        <v>0.65980099999999997</v>
+        <v>0.67980099999999999</v>
       </c>
       <c r="O27" s="13">
         <v>0</v>
@@ -6573,9 +6579,12 @@
         <v>0</v>
       </c>
       <c r="S27" s="13">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T27" s="13">
+        <v>0</v>
+      </c>
+      <c r="U27" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6614,10 +6623,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="13">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M28" s="13">
-        <v>0.58880100000000002</v>
+        <v>0.60880100000000004</v>
       </c>
       <c r="O28" s="13">
         <v>0</v>
@@ -6632,9 +6641,12 @@
         <v>0</v>
       </c>
       <c r="S28" s="13">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T28" s="13">
+        <v>0</v>
+      </c>
+      <c r="U28" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6696,6 +6708,9 @@
       <c r="T29" s="13">
         <v>0</v>
       </c>
+      <c r="U29" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
@@ -6755,6 +6770,9 @@
       <c r="T30" s="13">
         <v>0</v>
       </c>
+      <c r="U30" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
@@ -6814,6 +6832,9 @@
       <c r="T31" s="13">
         <v>0</v>
       </c>
+      <c r="U31" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
@@ -6873,8 +6894,11 @@
       <c r="T32" s="13">
         <v>0</v>
       </c>
+      <c r="U32" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>41821</v>
       </c>
@@ -6932,8 +6956,11 @@
       <c r="T33" s="13">
         <v>0</v>
       </c>
+      <c r="U33" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>41852</v>
       </c>
@@ -6991,8 +7018,11 @@
       <c r="T34" s="13">
         <v>0</v>
       </c>
+      <c r="U34" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>41883</v>
       </c>
@@ -7050,8 +7080,11 @@
       <c r="T35" s="13">
         <v>0</v>
       </c>
+      <c r="U35" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>41913</v>
       </c>
@@ -7109,8 +7142,11 @@
       <c r="T36" s="13">
         <v>0</v>
       </c>
+      <c r="U36" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>41944</v>
       </c>
@@ -7168,8 +7204,11 @@
       <c r="T37" s="13">
         <v>0</v>
       </c>
+      <c r="U37" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>41974</v>
       </c>
@@ -7227,8 +7266,11 @@
       <c r="T38" s="13">
         <v>0</v>
       </c>
+      <c r="U38" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>42005</v>
       </c>
@@ -7286,8 +7328,11 @@
       <c r="T39" s="14">
         <v>0</v>
       </c>
+      <c r="U39" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>42036</v>
       </c>
@@ -7345,8 +7390,11 @@
       <c r="T40" s="14">
         <v>0</v>
       </c>
+      <c r="U40" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>42064</v>
       </c>
@@ -7404,8 +7452,11 @@
       <c r="T41" s="14">
         <v>0</v>
       </c>
+      <c r="U41" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>42095</v>
       </c>
@@ -7463,8 +7514,11 @@
       <c r="T42" s="14">
         <v>0</v>
       </c>
+      <c r="U42" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>42125</v>
       </c>
@@ -7522,8 +7576,11 @@
       <c r="T43" s="14">
         <v>0</v>
       </c>
+      <c r="U43" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>42156</v>
       </c>
@@ -7581,8 +7638,11 @@
       <c r="T44" s="14">
         <v>0</v>
       </c>
+      <c r="U44" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>42186</v>
       </c>
@@ -7640,8 +7700,11 @@
       <c r="T45" s="14">
         <v>0</v>
       </c>
+      <c r="U45" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>42217</v>
       </c>
@@ -7699,8 +7762,11 @@
       <c r="T46" s="14">
         <v>0</v>
       </c>
+      <c r="U46" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>42248</v>
       </c>
@@ -7753,13 +7819,16 @@
         <v>0</v>
       </c>
       <c r="S47" s="14">
+        <v>0</v>
+      </c>
+      <c r="T47" s="14">
         <v>0.01</v>
       </c>
-      <c r="T47" s="14">
+      <c r="U47" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>42278</v>
       </c>
@@ -7817,8 +7886,11 @@
       <c r="T48" s="14">
         <v>0</v>
       </c>
+      <c r="U48" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>42309</v>
       </c>
@@ -7876,8 +7948,11 @@
       <c r="T49" s="14">
         <v>0</v>
       </c>
+      <c r="U49" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>42339</v>
       </c>
@@ -7933,10 +8008,13 @@
         <v>0</v>
       </c>
       <c r="T50" s="14">
+        <v>0</v>
+      </c>
+      <c r="U50" s="14">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>42370</v>
       </c>
@@ -7992,10 +8070,13 @@
         <v>0</v>
       </c>
       <c r="T51" s="14">
+        <v>0</v>
+      </c>
+      <c r="U51" s="14">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>42401</v>
       </c>
@@ -8051,10 +8132,13 @@
         <v>0</v>
       </c>
       <c r="T52" s="14">
+        <v>0</v>
+      </c>
+      <c r="U52" s="14">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>42430</v>
       </c>
@@ -8110,10 +8194,13 @@
         <v>0</v>
       </c>
       <c r="T53" s="14">
+        <v>0</v>
+      </c>
+      <c r="U53" s="14">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>42461</v>
       </c>
@@ -8169,10 +8256,13 @@
         <v>0</v>
       </c>
       <c r="T54" s="14">
+        <v>0</v>
+      </c>
+      <c r="U54" s="14">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>42491</v>
       </c>
@@ -8228,10 +8318,13 @@
         <v>0</v>
       </c>
       <c r="T55" s="14">
+        <v>0</v>
+      </c>
+      <c r="U55" s="14">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>42522</v>
       </c>
@@ -8284,13 +8377,16 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="S56" s="14">
+        <v>0</v>
+      </c>
+      <c r="T56" s="14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="T56" s="14">
+      <c r="U56" s="14">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>42552</v>
       </c>
@@ -8343,13 +8439,16 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="S57" s="14">
+        <v>0</v>
+      </c>
+      <c r="T57" s="14">
         <v>0.02</v>
       </c>
-      <c r="T57" s="14">
+      <c r="U57" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>42583</v>
       </c>
@@ -8402,13 +8501,16 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="S58" s="14">
+        <v>0</v>
+      </c>
+      <c r="T58" s="14">
         <v>0.02</v>
       </c>
-      <c r="T58" s="14">
+      <c r="U58" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>42614</v>
       </c>
@@ -8461,13 +8563,16 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="S59" s="14">
+        <v>0</v>
+      </c>
+      <c r="T59" s="14">
         <v>0.02</v>
       </c>
-      <c r="T59" s="14">
+      <c r="U59" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>42644</v>
       </c>
@@ -8520,13 +8625,16 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="S60" s="14">
+        <v>0</v>
+      </c>
+      <c r="T60" s="14">
         <v>0.02</v>
       </c>
-      <c r="T60" s="14">
+      <c r="U60" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>42675</v>
       </c>
@@ -8579,13 +8687,16 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="S61" s="14">
+        <v>0</v>
+      </c>
+      <c r="T61" s="14">
         <v>0.02</v>
       </c>
-      <c r="T61" s="14">
+      <c r="U61" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>42705</v>
       </c>
@@ -8599,7 +8710,7 @@
         <v>0.13</v>
       </c>
       <c r="E62" s="14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F62" s="14">
         <v>0</v>
@@ -8623,7 +8734,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="M62" s="14">
-        <v>0.32500000000000007</v>
+        <v>0.33500000000000008</v>
       </c>
       <c r="O62" s="14">
         <v>0</v>
@@ -8638,72 +8749,78 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="S62" s="14">
+        <v>0</v>
+      </c>
+      <c r="T62" s="14">
         <v>0.02</v>
       </c>
-      <c r="T62" s="14">
+      <c r="U62" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>42736</v>
       </c>
-      <c r="B63" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C63" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D63" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E63" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F63" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G63" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H63" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I63" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J63" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K63" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L63" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M63" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O63" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P63" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q63" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R63" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S63" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T63" s="14" t="e">
-        <v>#N/A</v>
+      <c r="B63" s="14">
+        <v>0</v>
+      </c>
+      <c r="C63" s="14">
+        <v>0</v>
+      </c>
+      <c r="D63" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="E63" s="14">
+        <v>0.10387096774</v>
+      </c>
+      <c r="F63" s="14">
+        <v>0</v>
+      </c>
+      <c r="G63" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="H63" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I63" s="14">
+        <v>0</v>
+      </c>
+      <c r="J63" s="14">
+        <v>0</v>
+      </c>
+      <c r="K63" s="14">
+        <v>0</v>
+      </c>
+      <c r="L63" s="14">
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="M63" s="14">
+        <v>0.45887096773999997</v>
+      </c>
+      <c r="O63" s="14">
+        <v>0</v>
+      </c>
+      <c r="P63" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="R63" s="14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S63" s="14">
+        <v>0</v>
+      </c>
+      <c r="T63" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="U63" s="14">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>42767</v>
       </c>
@@ -8761,8 +8878,11 @@
       <c r="T64" s="14" t="e">
         <v>#N/A</v>
       </c>
+      <c r="U64" s="14" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>42795</v>
       </c>
@@ -8820,8 +8940,11 @@
       <c r="T65" s="14" t="e">
         <v>#N/A</v>
       </c>
+      <c r="U65" s="14" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>42826</v>
       </c>
@@ -8879,8 +9002,11 @@
       <c r="T66" s="14" t="e">
         <v>#N/A</v>
       </c>
+      <c r="U66" s="14" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>42856</v>
       </c>
@@ -8938,8 +9064,11 @@
       <c r="T67" s="14" t="e">
         <v>#N/A</v>
       </c>
+      <c r="U67" s="14" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>42887</v>
       </c>
@@ -8997,8 +9126,11 @@
       <c r="T68" s="14" t="e">
         <v>#N/A</v>
       </c>
+      <c r="U68" s="14" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>42917</v>
       </c>
@@ -9056,8 +9188,11 @@
       <c r="T69" s="14" t="e">
         <v>#N/A</v>
       </c>
+      <c r="U69" s="14" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>42948</v>
       </c>
@@ -9115,8 +9250,11 @@
       <c r="T70" s="14" t="e">
         <v>#N/A</v>
       </c>
+      <c r="U70" s="14" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>42979</v>
       </c>
@@ -9174,8 +9312,11 @@
       <c r="T71" s="14" t="e">
         <v>#N/A</v>
       </c>
+      <c r="U71" s="14" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>43009</v>
       </c>
@@ -9233,8 +9374,11 @@
       <c r="T72" s="14" t="e">
         <v>#N/A</v>
       </c>
+      <c r="U72" s="14" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>43040</v>
       </c>
@@ -9292,8 +9436,11 @@
       <c r="T73" s="14" t="e">
         <v>#N/A</v>
       </c>
+      <c r="U73" s="14" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>43070</v>
       </c>
@@ -9351,30 +9498,33 @@
       <c r="T74" s="16" t="e">
         <v>#N/A</v>
       </c>
+      <c r="U74" s="16" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B25:M25"/>
-    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="O25:U25"/>
   </mergeCells>
-  <conditionalFormatting sqref="B39:K74 M39:M74">
+  <conditionalFormatting sqref="B39:K74 M39:M74 S39:S74">
     <cfRule type="expression" dxfId="13" priority="14">
       <formula>ISNA(B39)</formula>
     </cfRule>
@@ -9409,14 +9559,14 @@
       <formula>ISNA(Q39)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T74">
+  <conditionalFormatting sqref="U74">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISNA(T74)</formula>
+      <formula>ISNA(U74)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T39:T73">
+  <conditionalFormatting sqref="U39:U73">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISNA(T39)</formula>
+      <formula>ISNA(U39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R74">
@@ -9434,14 +9584,14 @@
       <formula>ISNA(L39)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S74">
+  <conditionalFormatting sqref="T74">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISNA(S74)</formula>
+      <formula>ISNA(T74)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S39:S73">
+  <conditionalFormatting sqref="T39:T73">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISNA(S39)</formula>
+      <formula>ISNA(T39)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
